--- a/template_examples/whole_blood_template.xlsx
+++ b/template_examples/whole_blood_template.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnunes/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlindsay/Documents/Code/cidc/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674B54B7-4B85-B14A-86D6-EEB824586DDE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="-17760" windowWidth="27080" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45120" yWindow="2600" windowWidth="45120" windowHeight="23140"/>
   </bookViews>
   <sheets>
     <sheet name="Tissue" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="B7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="B10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="B17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="B19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="B22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="C22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="D22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="E22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="F22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="G22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="H22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="I22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="J22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="K22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="L22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +409,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="M22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="N22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -428,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="O22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="P22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -454,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="Q22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -467,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="R22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="S22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -493,7 +500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="T22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="U22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -519,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="V22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +544,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="75">
   <si>
     <t>#t</t>
   </si>
@@ -735,12 +742,39 @@
   </si>
   <si>
     <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P888</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -906,9 +940,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -936,31 +970,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -988,23 +1005,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1180,11 +1180,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V222"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1221,7 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1281,7 +1281,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1401,7 +1401,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1521,7 +1521,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1611,7 +1611,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1866,8 +1866,8 @@
       <c r="C23">
         <v>54321</v>
       </c>
-      <c r="D23">
-        <v>12345</v>
+      <c r="D23" t="s">
+        <v>72</v>
       </c>
       <c r="E23">
         <v>54321</v>
@@ -1878,8 +1878,8 @@
       <c r="G23">
         <v>54321</v>
       </c>
-      <c r="H23">
-        <v>12345</v>
+      <c r="H23" t="s">
+        <v>69</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>54</v>
@@ -1905,8 +1905,8 @@
       <c r="P23" t="s">
         <v>60</v>
       </c>
-      <c r="Q23">
-        <v>12344</v>
+      <c r="Q23" t="s">
+        <v>55</v>
       </c>
       <c r="R23">
         <v>500</v>
@@ -1934,8 +1934,8 @@
       <c r="C24">
         <v>54321</v>
       </c>
-      <c r="D24">
-        <v>12345</v>
+      <c r="D24" t="s">
+        <v>74</v>
       </c>
       <c r="E24">
         <v>54321</v>
@@ -1946,8 +1946,8 @@
       <c r="G24">
         <v>54321</v>
       </c>
-      <c r="H24">
-        <v>12345</v>
+      <c r="H24" t="s">
+        <v>69</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>54</v>
@@ -1973,8 +1973,8 @@
       <c r="P24" t="s">
         <v>60</v>
       </c>
-      <c r="Q24">
-        <v>12344</v>
+      <c r="Q24" t="s">
+        <v>64</v>
       </c>
       <c r="R24">
         <v>500</v>
@@ -2002,8 +2002,8 @@
       <c r="C25">
         <v>54321</v>
       </c>
-      <c r="D25">
-        <v>12345</v>
+      <c r="D25" t="s">
+        <v>72</v>
       </c>
       <c r="E25">
         <v>54321</v>
@@ -2014,8 +2014,8 @@
       <c r="G25">
         <v>54321</v>
       </c>
-      <c r="H25">
-        <v>12345</v>
+      <c r="H25" t="s">
+        <v>70</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>54</v>
@@ -2041,8 +2041,8 @@
       <c r="P25" t="s">
         <v>60</v>
       </c>
-      <c r="Q25">
-        <v>12344</v>
+      <c r="Q25" t="s">
+        <v>65</v>
       </c>
       <c r="R25">
         <v>500</v>
@@ -2070,8 +2070,8 @@
       <c r="C26">
         <v>54321</v>
       </c>
-      <c r="D26">
-        <v>12345</v>
+      <c r="D26" t="s">
+        <v>72</v>
       </c>
       <c r="E26">
         <v>54321</v>
@@ -2082,8 +2082,8 @@
       <c r="G26">
         <v>54321</v>
       </c>
-      <c r="H26">
-        <v>12345</v>
+      <c r="H26" t="s">
+        <v>70</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>54</v>
@@ -2109,8 +2109,8 @@
       <c r="P26" t="s">
         <v>60</v>
       </c>
-      <c r="Q26">
-        <v>12344</v>
+      <c r="Q26" t="s">
+        <v>66</v>
       </c>
       <c r="R26">
         <v>500</v>
@@ -2138,8 +2138,8 @@
       <c r="C27">
         <v>54321</v>
       </c>
-      <c r="D27">
-        <v>12345</v>
+      <c r="D27" t="s">
+        <v>73</v>
       </c>
       <c r="E27">
         <v>54321</v>
@@ -2150,8 +2150,8 @@
       <c r="G27">
         <v>54321</v>
       </c>
-      <c r="H27">
-        <v>12345</v>
+      <c r="H27" t="s">
+        <v>71</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>54</v>
@@ -2177,8 +2177,8 @@
       <c r="P27" t="s">
         <v>60</v>
       </c>
-      <c r="Q27">
-        <v>12344</v>
+      <c r="Q27" t="s">
+        <v>67</v>
       </c>
       <c r="R27">
         <v>500</v>
@@ -2206,8 +2206,8 @@
       <c r="C28">
         <v>54321</v>
       </c>
-      <c r="D28">
-        <v>12345</v>
+      <c r="D28" t="s">
+        <v>73</v>
       </c>
       <c r="E28">
         <v>54321</v>
@@ -2218,8 +2218,8 @@
       <c r="G28">
         <v>54321</v>
       </c>
-      <c r="H28">
-        <v>12345</v>
+      <c r="H28" t="s">
+        <v>71</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>54</v>
@@ -2245,8 +2245,8 @@
       <c r="P28" t="s">
         <v>60</v>
       </c>
-      <c r="Q28">
-        <v>12344</v>
+      <c r="Q28" t="s">
+        <v>68</v>
       </c>
       <c r="R28">
         <v>500</v>
@@ -3241,37 +3241,37 @@
     <mergeCell ref="Q21:V21"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>"Assay-1,Assay-2,Assay-3,Assay-4,Assay-5,Assay-6,Assay-7,Assay-8,Assay-9,Assay-10,Assay-11,Assay-12,Assay-13,Assay-14,Assay-15,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
       <formula1>"Frozen (Dry Ice),Frozen (Dry Shipper),Ambient (Ice Pack),Ambient,Other"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14">
       <formula1>AND(ISNUMBER(C14),LEFT(CELL("format",C14),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:K222" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:K222">
       <formula1>"Core Needle Biopsy,Surgical Resection,Endoscopic Biopsy,Punch Biopsy,Plasma,PBMC,Whole Blood,Stool Sample,Bone Marrow Aspirate,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L23:L222" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L23:L222">
       <formula1>"FFPE Block,FFPE Scroll,FFPE Core Punch,Unstained Slide,Frozen Tissue,Sodium Heparin Green-Top Tube,Streck Tube,EDTA Tube,Archival FFPE Block,Archival FFPE Slides,Archival FFPE Core Punch,Archival FFPE Scroll,Frozen Stool,DNA-Preserved Stool,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M23:M222" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M23:M222">
       <formula1>"DNA,RNA,cfDNA,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O23:O222" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O23:O222">
       <formula1>"µL,mL,mg,ng,Vials,Slides,Scrolls,Blocks,ng/µL,cells/ml,N/A,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T23:T222" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T23:T222">
       <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U23:U222" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U23:U222">
       <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V23:V222" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V23:V222">
       <formula1>"Sample Returned,Sample Exhausted,Remainder used for other Assay,Other,Sample Leftover"</formula1>
     </dataValidation>
   </dataValidations>

--- a/template_examples/whole_blood_template.xlsx
+++ b/template_examples/whole_blood_template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlindsay/Documents/Code/cidc/cidc-schemas/template_examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/code/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0385879-FA05-554D-B1B6-4484CA457C68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45120" yWindow="2600" windowWidth="45120" windowHeight="23140"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tissue" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>CIDC</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="0">
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0">
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -123,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -149,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -292,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G22" authorId="0">
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H22" authorId="0">
+    <comment ref="H22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0">
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J22" authorId="0">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -383,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K22" authorId="0">
+    <comment ref="K22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L22" authorId="0">
+    <comment ref="L22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -409,7 +410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="0">
+    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -422,7 +423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N22" authorId="0">
+    <comment ref="N22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -435,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="0">
+    <comment ref="O22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -448,12 +449,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="P22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+    <comment ref="P22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -461,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q22" authorId="0">
+    <comment ref="Q22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -474,12 +475,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="R22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+    <comment ref="R22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -487,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S22" authorId="0">
+    <comment ref="S22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -500,12 +501,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="T22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+    <comment ref="T22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -513,12 +514,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="U22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+    <comment ref="U22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -526,12 +527,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="V22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
+    <comment ref="V22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -660,9 +661,6 @@
     <t>EXTRACTED UNITS</t>
   </si>
   <si>
-    <t>SAMPLE AMOUNT</t>
-  </si>
-  <si>
     <t>CIMAC ALIQUOT ID</t>
   </si>
   <si>
@@ -672,15 +670,6 @@
     <t>MATERIAL REMAINING</t>
   </si>
   <si>
-    <t>SAMPLE QUALITY STATUS</t>
-  </si>
-  <si>
-    <t>SAMPLE REPLACEMENT</t>
-  </si>
-  <si>
-    <t>SAMPLE STATUS</t>
-  </si>
-  <si>
     <t>R123</t>
   </si>
   <si>
@@ -735,9 +724,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Sample Exhausted</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -769,13 +755,28 @@
   </si>
   <si>
     <t>P888</t>
+  </si>
+  <si>
+    <t>Aliquot Exhausted</t>
+  </si>
+  <si>
+    <t>ALIQUOT STATUS</t>
+  </si>
+  <si>
+    <t>ALIQUOT AMOUNT</t>
+  </si>
+  <si>
+    <t>ALIQUOT QUALITY STATUS</t>
+  </si>
+  <si>
+    <t>ALIQUOT REPLACEMENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +795,12 @@
     <font>
       <sz val="10"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1180,11 +1187,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1228,7 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1251,7 +1258,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1281,7 +1288,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1289,7 +1296,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1311,7 +1318,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1341,7 +1348,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1349,7 +1356,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1371,7 +1378,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1401,7 +1408,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1438,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1461,7 +1468,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1469,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1491,7 +1498,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -1499,7 +1506,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1521,7 +1528,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1551,7 +1558,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +1566,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1581,7 +1588,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1611,7 +1618,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1648,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1678,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1701,7 +1708,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1709,7 +1716,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1731,7 +1738,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1739,7 +1746,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1835,25 +1842,25 @@
         <v>37</v>
       </c>
       <c r="P22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S22" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="T22" s="2" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
@@ -1867,7 +1874,7 @@
         <v>54321</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>54321</v>
@@ -1879,34 +1886,34 @@
         <v>54321</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>53</v>
+      </c>
+      <c r="M23" t="s">
         <v>54</v>
-      </c>
-      <c r="J23" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" t="s">
-        <v>58</v>
       </c>
       <c r="N23">
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R23">
         <v>500</v>
@@ -1915,13 +1922,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
@@ -1935,7 +1942,7 @@
         <v>54321</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>54321</v>
@@ -1947,34 +1954,34 @@
         <v>54321</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" t="s">
         <v>54</v>
-      </c>
-      <c r="J24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K24" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M24" t="s">
-        <v>58</v>
       </c>
       <c r="N24">
         <v>125</v>
       </c>
       <c r="O24" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
         <v>59</v>
-      </c>
-      <c r="P24" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>64</v>
       </c>
       <c r="R24">
         <v>500</v>
@@ -1983,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
@@ -2003,7 +2010,7 @@
         <v>54321</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E25">
         <v>54321</v>
@@ -2015,34 +2022,34 @@
         <v>54321</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M25" t="s">
         <v>54</v>
-      </c>
-      <c r="J25" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" t="s">
-        <v>57</v>
-      </c>
-      <c r="M25" t="s">
-        <v>58</v>
       </c>
       <c r="N25">
         <v>200</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
         <v>60</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>65</v>
       </c>
       <c r="R25">
         <v>500</v>
@@ -2051,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
@@ -2071,7 +2078,7 @@
         <v>54321</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E26">
         <v>54321</v>
@@ -2083,34 +2090,34 @@
         <v>54321</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M26" t="s">
         <v>54</v>
-      </c>
-      <c r="J26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" t="s">
-        <v>57</v>
-      </c>
-      <c r="M26" t="s">
-        <v>58</v>
       </c>
       <c r="N26">
         <v>250</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q26" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="R26">
         <v>500</v>
@@ -2119,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
@@ -2139,7 +2146,7 @@
         <v>54321</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E27">
         <v>54321</v>
@@ -2151,34 +2158,34 @@
         <v>54321</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" t="s">
         <v>54</v>
-      </c>
-      <c r="J27" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" t="s">
-        <v>58</v>
       </c>
       <c r="N27">
         <v>100</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="R27">
         <v>500</v>
@@ -2187,13 +2194,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -2207,7 +2214,7 @@
         <v>54321</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E28">
         <v>54321</v>
@@ -2219,34 +2226,34 @@
         <v>54321</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" t="s">
+        <v>53</v>
+      </c>
+      <c r="M28" t="s">
         <v>54</v>
-      </c>
-      <c r="J28" t="s">
-        <v>65</v>
-      </c>
-      <c r="K28" t="s">
-        <v>56</v>
-      </c>
-      <c r="L28" t="s">
-        <v>57</v>
-      </c>
-      <c r="M28" t="s">
-        <v>58</v>
       </c>
       <c r="N28">
         <v>90</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q28" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="R28">
         <v>500</v>
@@ -2255,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
@@ -3241,38 +3248,38 @@
     <mergeCell ref="Q21:V21"/>
   </mergeCells>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Assay-1,Assay-2,Assay-3,Assay-4,Assay-5,Assay-6,Assay-7,Assay-8,Assay-9,Assay-10,Assay-11,Assay-12,Assay-13,Assay-14,Assay-15,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"FEDEX,USPS,UPC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Frozen (Dry Ice),Frozen (Dry Shipper),Ambient (Ice Pack),Ambient,Other"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter date in format mm/dd/yyyy" sqref="C14" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>AND(ISNUMBER(C14),LEFT(CELL("format",C14),1)="D")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:K222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:K222" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Core Needle Biopsy,Surgical Resection,Endoscopic Biopsy,Punch Biopsy,Plasma,PBMC,Whole Blood,Stool Sample,Bone Marrow Aspirate,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L23:L222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L23:L222" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"FFPE Block,FFPE Scroll,FFPE Core Punch,Unstained Slide,Frozen Tissue,Sodium Heparin Green-Top Tube,Streck Tube,EDTA Tube,Archival FFPE Block,Archival FFPE Slides,Archival FFPE Core Punch,Archival FFPE Scroll,Frozen Stool,DNA-Preserved Stool,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M23:M222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M23:M222" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"DNA,RNA,cfDNA,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O23:O222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O23:O222" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"µL,mL,mg,ng,Vials,Slides,Scrolls,Blocks,ng/µL,cells/ml,N/A,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T23:T222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T23:T222" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"Usable for Assay,Not Usable for Assay,Verifying,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U23:U222">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U23:U222" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>"Replacement Requested,Replacement Tested,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V23:V222">
-      <formula1>"Sample Returned,Sample Exhausted,Remainder used for other Assay,Other,Sample Leftover"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V25:V1048576 V23" xr:uid="{F5401C4E-1A31-A940-8F05-F2E0CF5093CD}">
+      <formula1>"Aliquot Returned,Aliquot Exhausted,Remainder used for other Assay,Other,Aliquot Leftover"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template_examples/whole_blood_template.xlsx
+++ b/template_examples/whole_blood_template.xlsx
@@ -689,7 +689,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>#t</t>
+          <t>#title</t>
         </is>
       </c>
       <c r="B1" s="5" t="inlineStr">
@@ -721,7 +721,7 @@
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
@@ -789,7 +789,7 @@
     <row r="4" ht="16" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -825,7 +825,7 @@
     <row r="5" ht="16" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="6" ht="16" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="7" ht="16" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
@@ -931,7 +931,7 @@
     <row r="8" ht="16" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -965,7 +965,7 @@
     <row r="9" ht="16" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="10" ht="16" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -1035,7 +1035,7 @@
     <row r="11" ht="16" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
@@ -1071,7 +1071,7 @@
     <row r="12" ht="16" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -1107,7 +1107,7 @@
     <row r="13" ht="16" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="14" ht="16" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -1177,7 +1177,7 @@
     <row r="15" ht="16" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
@@ -1211,7 +1211,7 @@
     <row r="16" ht="16" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="17" ht="16" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B17" s="1" t="inlineStr">
@@ -1279,7 +1279,7 @@
     <row r="18" ht="16" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -1315,7 +1315,7 @@
     <row r="19" ht="16" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>#p</t>
+          <t>#preamble</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>#mh</t>
+          <t>#skip</t>
         </is>
       </c>
       <c r="B21" s="5" t="inlineStr">
@@ -1388,7 +1388,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>#h</t>
+          <t>#header</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1596,7 +1596,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1692,7 +1692,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1788,7 +1788,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1884,7 +1884,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1980,7 +1980,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2076,1358 +2076,1358 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>#d</t>
+          <t>#data</t>
         </is>
       </c>
     </row>

--- a/template_examples/whole_blood_template.xlsx
+++ b/template_examples/whole_blood_template.xlsx
@@ -682,7 +682,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" min="1" max="1"/>
+    <col hidden="1" width="30" customWidth="1" min="1" max="1"/>
     <col width="30.6640625" customWidth="1" min="2" max="101"/>
   </cols>
   <sheetData>
@@ -1348,7 +1348,6 @@
       <c r="U19" s="1" t="n"/>
       <c r="V19" s="1" t="n"/>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
